--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_301__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_301__Reeval_Sobol_Modell_1.1.xlsx
@@ -6118,7 +6118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="103"/>
                 <c:pt idx="0">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>43.26775741577148</c:v>
@@ -6127,16 +6127,16 @@
                   <c:v>-0.458073616027832</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43.12907409667969</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05527036264538765</c:v>
+                  <c:v>0.05527264252305031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.15625381469727</c:v>
+                  <c:v>42.15625762939453</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>46.67446517944336</c:v>
@@ -6145,40 +6145,40 @@
                   <c:v>46.15026092529297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.26675415039062</c:v>
+                  <c:v>47.26675796508789</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-0.8857664465904236</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.95088863372803</c:v>
+                  <c:v>10.95089149475098</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>52.91602325439453</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.9432182908058167</c:v>
+                  <c:v>0.9432159662246704</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.59719467163086</c:v>
+                  <c:v>46.59719848632812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>51.62263870239258</c:v>
+                  <c:v>51.62263488769531</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>36.34365463256836</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>47.6945686340332</c:v>
+                  <c:v>47.69457244873047</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>47.38671875</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.630939483642578</c:v>
+                  <c:v>4.630941867828369</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>50.22871398925781</c:v>
@@ -6193,7 +6193,7 @@
                   <c:v>47.74963760375977</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>46.11979675292969</c:v>
@@ -6205,7 +6205,7 @@
                   <c:v>45.79335021972656</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>47.38961410522461</c:v>
+                  <c:v>47.38961791992188</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>44.81581115722656</c:v>
@@ -6214,22 +6214,22 @@
                   <c:v>-0.1879675686359406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.423822164535522</c:v>
+                  <c:v>2.423824310302734</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>46.7724723815918</c:v>
@@ -6253,10 +6253,10 @@
                   <c:v>48.77277374267578</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.2082206755876541</c:v>
+                  <c:v>-0.2082183957099915</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>49.34243392944336</c:v>
+                  <c:v>49.34243774414062</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>45.7038459777832</c:v>
@@ -6268,16 +6268,16 @@
                   <c:v>50.34123229980469</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1894606202840805</c:v>
+                  <c:v>0.1894583404064178</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>40.17745971679688</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>46.90330505371094</c:v>
@@ -6286,7 +6286,7 @@
                   <c:v>46.44053649902344</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.9644880294799805</c:v>
+                  <c:v>0.964485764503479</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.351287841796875</c:v>
@@ -6313,22 +6313,22 @@
                   <c:v>48.08884811401367</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-0.2579268515110016</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>40.51179885864258</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-1.237117409706116</c:v>
+                  <c:v>-1.237112879753113</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.5640098452568054</c:v>
@@ -6337,19 +6337,19 @@
                   <c:v>49.04824447631836</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>41.4842643737793</c:v>
+                  <c:v>41.48427200317383</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-1.145845055580139</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>45.46231079101562</c:v>
+                  <c:v>45.46231460571289</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.315686345100403</c:v>
+                  <c:v>-1.315688610076904</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>46.18254470825195</c:v>
@@ -6364,7 +6364,7 @@
                   <c:v>0.2696000337600708</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>-0.6137319207191467</c:v>
@@ -6388,25 +6388,25 @@
                   <c:v>-0.1349675506353378</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>47.59822463989258</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>48.34795761108398</c:v>
+                  <c:v>48.34796142578125</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>46.81258392333984</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5689699649810791</c:v>
+                  <c:v>0.5689722299575806</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.407535076141357</c:v>
+                  <c:v>6.407538414001465</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.1840058416128159</c:v>
+                  <c:v>0.1840035617351532</c:v>
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>51.41769409179688</c:v>
@@ -6415,7 +6415,7 @@
                   <c:v>47.58518600463867</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>47.47911071777344</c:v>
+                  <c:v>47.47909927368164</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>47.11725616455078</c:v>
@@ -6424,7 +6424,7 @@
                   <c:v>42.79594421386719</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.1840035617351532</c:v>
+                  <c:v>0.1840012818574905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
       <c r="G5">
         <v>77</v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05527036264538765</v>
+        <v>0.05527264252305031</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>42.15625381469727</v>
+        <v>42.15625762939453</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.26675415039062</v>
+        <v>47.26675796508789</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.95088863372803</v>
+        <v>10.95089149475098</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>26.5051</v>
       </c>
       <c r="F16">
-        <v>0.9432182908058167</v>
+        <v>0.9432159662246704</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>51.572</v>
       </c>
       <c r="F17">
-        <v>46.59719467163086</v>
+        <v>46.59719848632812</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>51.4673</v>
       </c>
       <c r="F18">
-        <v>51.62263870239258</v>
+        <v>51.62263488769531</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>45.5233</v>
       </c>
       <c r="F20">
-        <v>47.6945686340332</v>
+        <v>47.69457244873047</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>34.2646</v>
       </c>
       <c r="F22">
-        <v>4.630939483642578</v>
+        <v>4.630941867828369</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>47.38961410522461</v>
+        <v>47.38961791992188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>2.423822164535522</v>
+        <v>2.423824310302734</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.2082206755876541</v>
+        <v>-0.2082183957099915</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>60.9577</v>
       </c>
       <c r="F48">
-        <v>49.34243392944336</v>
+        <v>49.34243774414062</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.1894606202840805</v>
+        <v>0.1894583404064178</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.9644880294799805</v>
+        <v>0.964485764503479</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>-1.237117409706116</v>
+        <v>-1.237112879753113</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>41.4842643737793</v>
+        <v>41.48427200317383</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>43.5154</v>
       </c>
       <c r="F78">
-        <v>45.46231079101562</v>
+        <v>45.46231460571289</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>-1.315686345100403</v>
+        <v>-1.315688610076904</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -9031,7 +9031,7 @@
         <v>51.117</v>
       </c>
       <c r="F94">
-        <v>48.34795761108398</v>
+        <v>48.34796142578125</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.5689699649810791</v>
+        <v>0.5689722299575806</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>6.407535076141357</v>
+        <v>6.407538414001465</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9111,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.1840058416128159</v>
+        <v>0.1840035617351532</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>47.47911071777344</v>
+        <v>47.47909927368164</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.1840035617351532</v>
+        <v>0.1840012818574905</v>
       </c>
     </row>
     <row r="105" spans="1:6">
